--- a/BTC_Transaction_6.xlsx
+++ b/BTC_Transaction_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,12 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>summary</t>
+          <t>count(trans_fees_2)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>sum(in_value)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sum(out_value)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>trans_fees_2</t>
+          <t>sum(sum(out_value))</t>
         </is>
       </c>
     </row>
@@ -459,125 +449,11 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
+      <c r="B2" t="n">
+        <v>891</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>891</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>891</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>891</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1.6308588183277217E8</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.6307823112906846E8</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>16.694006734006727</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>stddev</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2.1385041409327383E9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.1385034018142257E9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18.598471810966775</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1606</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>546</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>59393683884</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>59393668908</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>382.2</t>
-        </is>
+      <c r="C2" t="n">
+        <v>145302703936</v>
       </c>
     </row>
   </sheetData>
